--- a/03.crawler/02.Dorman/file/5.collate/crawler_1-vehicle.xlsx
+++ b/03.crawler/02.Dorman/file/5.collate/crawler_1-vehicle.xlsx
@@ -466,22 +466,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>W19235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=25698&amp;PartType=Wheel%20Cylinder</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>American Motors American 1959
+American Motors Classic 1961
+American Motors Rambler 1959-1960
+American Motors Rebel 1960
+Packard Clipper 1957
+Studebaker 3E1 1958
+Studebaker 3E11 1958
+Studebaker 3E5 1958
+Studebaker 3E6 1958
+Studebaker 4E1 1959
+Studebaker 4E11 1959
+Studebaker 4E3 1959
+Studebaker 6E10 1961
+Studebaker 6E5 1960-1961
+Studebaker 7E10 1962
+Studebaker 7E5 1962
+Studebaker 8E10 1963-1964
+Studebaker 8E5 1963-1964</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>American Motors American 1959
+American Motors Classic 1961
+American Motors Rambler 1959-1960
+American Motors Rebel 1960
+Packard Clipper 1957
+Studebaker 3E1 1958
+Studebaker 3E11 1958
+Studebaker 3E5 1958
+Studebaker 3E6 1958
+Studebaker 4E1 1959
+Studebaker 4E11 1959
+Studebaker 4E3 1959
+Studebaker 6E10 1961
+Studebaker 6E5 1960-1961
+Studebaker 7E10 1962
+Studebaker 7E5 1962
+Studebaker 8E10 1963-1964
+Studebaker 8E5 1963-1964</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>W37425</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=9421&amp;PartType=Wheel%20Cylinder</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>BMW 2002 1969-1976
 BMW 2002ti 1969-1971
 BMW 2002tii 1971-1974</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>BMW 2002 1969-1976
 BMW 2002ti 1969-1971
@@ -489,21 +548,274 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>W37635</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=9423&amp;PartType=Wheel%20Cylinder</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chevrolet Prizm 1998-2002
+Toyota Camry 1983-1986
+Toyota Celica 1986-2002
+Toyota Corolla 1984-2002
+Toyota Tercel 1984-1987
+Toyota Yaris 2018-2019</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chevrolet Prizm 1998-2002 4-Wheel ABS
+Toyota Camry 1983-1986
+Toyota Celica 1986-2002
+Toyota Celica 1988-1989 FWD
+Toyota Corolla 1984-1985 Hatchback
+Toyota Corolla 1984-1985 Sedan
+Toyota Corolla 1988-1992 Wagon; FWD
+Toyota Corolla 1998-2002 4-Wheel ABS
+Toyota Tercel 1984-1987 Wagon; FWD
+Toyota Yaris 2018-2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>W37872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=15216&amp;PartType=Wheel%20Cylinder</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nissan D21 1988-1994
+Nissan Frontier 1998-2015
+Nissan Pickup (Mexico) 1990-1994
+Nissan Pickup 1995-1997</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nissan D21 1988-1992 RWD; L4 2.4L (2389cc)
+Nissan D21 1992 RWD; V6 181 3.0L (2960cc)
+Nissan D21 1993-1994 RWD
+Nissan Frontier 1998-1999 RWD
+Nissan Frontier 2000 RWD; L4 2.4L (2389cc)
+Nissan Frontier 2001-2004 L4 2.4L (2389cc)
+Nissan Frontier 2015 Mexico Region
+Nissan Pickup (Mexico) 1990-1994 RWD; Mexico Region
+Nissan Pickup 1995-1997 RWD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W37984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=15277&amp;PartType=Wheel%20Cylinder</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Chrysler Grand Voyager (Mexico) 1994-1995
+Chrysler Town and Country 1994-1995
+Chrysler Voyager (Mexico) 1994-1995
+Dodge Caravan 1994-1995
+Dodge Grand Caravan 1994-1995
+Plymouth Grand Voyager 1994-1995
+Plymouth Voyager 1994-1995</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chrysler Grand Voyager (Mexico) 1994-1995 Mexico Region
+Chrysler Town and Country 1994-1995 FWD
+Chrysler Voyager (Mexico) 1994-1995 Mexico Region
+Dodge Caravan 1994 4-Wheel ABS; FWD
+Dodge Caravan 1995 4-Wheel ABS
+Dodge Grand Caravan 1994-1995 4-Wheel ABS; FWD
+Plymouth Grand Voyager 1994-1995 4-Wheel ABS; FWD
+Plymouth Voyager 1994-1995 4-Wheel ABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>W610150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=47833&amp;PartType=Wheel%20Cylinder</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nissan Tiida (Mexico) 2008-2018
+Nissan Versa 2008-2011</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nissan Tiida (Mexico) 2008-2018 4-Wheel ABS; Mexico Region
+Nissan Tiida (Mexico) 2010-2016 Mexico Region
+Nissan Tiida (Mexico) 2013 Hatchback; Mexico Region
+Nissan Tiida (Mexico) 2013-2014 Sedan; Mexico Region
+Nissan Versa 2008 4-Wheel ABS
+Nissan Versa 2009-2011 4-Wheel ABS; L4 98 1.6L (1598cc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>W610165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=50659&amp;PartType=Wheel%20Cylinder</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Volkswagen Clasico (Mexico) 2011-2014
+Volkswagen Golf 1996-1999
+Volkswagen Jetta 1996-1999
+Volkswagen Pointer 1994-1997
+Volkswagen Pointer Truck 1994-1997
+Volkswagen Polo (Mexico) 2003-2007
+Volkswagen Polo Classic 1997-2002</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Volkswagen Clasico (Mexico) 2011-2014 Rear Drum Brakes; Mexico Region
+Volkswagen Golf 1996-1999 L4 121 2.0L (1984cc)
+Volkswagen Jetta 1996-1999 L4 121 2.0L (1984cc)
+Volkswagen Pointer 1994-1997 Mexico Region
+Volkswagen Pointer Truck 1994-1997 Mexico Region
+Volkswagen Polo (Mexico) 2003-2007 Mexico Region
+Volkswagen Polo Classic 1997-2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>W610166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=50424&amp;PartType=Wheel%20Cylinder</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chrysler Grand Voyager (Mexico) 1991-1995
+Chrysler Town and Country 1990-1995
+Chrysler Voyager (Mexico) 1994-1995
+Chrysler Voyager 1991-1993
+Dodge Caravan 1984-1995
+Dodge Dakota 1987-2002
+Dodge Grand Caravan 1987-1995
+Dodge Mini Ram 1984-1988
+Ford Ranger 2003-2011
+Jeep Cherokee 1990-1996
+Jeep Comanche 1990-1992
+Jeep TJ 1997-2006
+Jeep Wagoneer 1990
+Jeep Wrangler 1997-2006
+Mazda B2300 2010
+Mazda B4000 2010
+Plymouth Grand Voyager 1988-1995
+Plymouth Voyager 1984-1995</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chrysler Grand Voyager (Mexico) 1991-1995 Mexico Region
+Chrysler Town and Country 1990
+Chrysler Town and Country 1992-1995 FWD
+Chrysler Voyager (Mexico) 1994-1995 Mexico Region
+Chrysler Voyager 1991-1993 Mexico Region
+Dodge Caravan 1984-1990
+Dodge Caravan 1991-1993 FWD
+Dodge Caravan 1994 Non-ABS; FWD
+Dodge Caravan 1995 Non-ABS
+Dodge Dakota 1987-1988 RWD
+Dodge Dakota 1989-2002
+Dodge Grand Caravan 1987-1990
+Dodge Grand Caravan 1991-1993 FWD
+Dodge Grand Caravan 1994-1995 Non-ABS; FWD
+Dodge Mini Ram 1984-1988
+Ford Ranger 2003-2011
+Jeep Cherokee 1990
+Jeep Cherokee 1991-1996 4-Wheel ABS
+Jeep Comanche 1990-1992
+Jeep TJ 1997-2006
+Jeep Wagoneer 1990
+Jeep Wrangler 1997-2000 4-Wheel ABS
+Jeep Wrangler 2001-2006
+Mazda B2300 2010
+Mazda B4000 2010
+Plymouth Grand Voyager 1988-1990
+Plymouth Grand Voyager 1991-1993 FWD
+Plymouth Grand Voyager 1994-1995 Non-ABS; FWD
+Plymouth Voyager 1984-1990
+Plymouth Voyager 1991-1993 FWD
+Plymouth Voyager 1994-1995 Non-ABS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>W72258</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=21537&amp;PartType=Wheel%20Cylinder</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Edsel Bermuda 1958
 Edsel Citation 1958
@@ -547,7 +859,7 @@
 Mercury Voyager 1957-1959</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Edsel Bermuda 1958
 Edsel Citation 1958
@@ -592,318 +904,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>W610165</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=50659&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Volkswagen Clasico (Mexico) 2011-2014
-Volkswagen Golf 1996-1999
-Volkswagen Jetta 1996-1999
-Volkswagen Pointer 1994-1997
-Volkswagen Pointer Truck 1994-1997
-Volkswagen Polo (Mexico) 2003-2007
-Volkswagen Polo Classic 1997-2002</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Volkswagen Clasico (Mexico) 2011-2014 Rear Drum Brakes; Mexico Region
-Volkswagen Golf 1996-1999 L4 121 2.0L (1984cc)
-Volkswagen Jetta 1996-1999 L4 121 2.0L (1984cc)
-Volkswagen Pointer 1994-1997 Mexico Region
-Volkswagen Pointer Truck 1994-1997 Mexico Region
-Volkswagen Polo (Mexico) 2003-2007 Mexico Region
-Volkswagen Polo Classic 1997-2002</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>W610150</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=47833&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nissan Tiida (Mexico) 2008-2018
-Nissan Versa 2008-2011</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Nissan Tiida (Mexico) 2008-2018 4-Wheel ABS; Mexico Region
-Nissan Tiida (Mexico) 2010-2016 Mexico Region
-Nissan Tiida (Mexico) 2013 Hatchback; Mexico Region
-Nissan Tiida (Mexico) 2013-2014 Sedan; Mexico Region
-Nissan Versa 2008 4-Wheel ABS
-Nissan Versa 2009-2011 4-Wheel ABS; L4 98 1.6L (1598cc)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>W610166</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=50424&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Chrysler Grand Voyager (Mexico) 1991-1995
-Chrysler Town and Country 1990-1995
-Chrysler Voyager (Mexico) 1994-1995
-Chrysler Voyager 1991-1993
-Dodge Caravan 1984-1995
-Dodge Dakota 1987-2002
-Dodge Grand Caravan 1987-1995
-Dodge Mini Ram 1984-1988
-Ford Ranger 2003-2011
-Jeep Cherokee 1990-1996
-Jeep Comanche 1990-1992
-Jeep TJ 1997-2006
-Jeep Wagoneer 1990
-Jeep Wrangler 1997-2006
-Mazda B2300 2010
-Mazda B4000 2010
-Plymouth Grand Voyager 1988-1995
-Plymouth Voyager 1984-1995</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Chrysler Grand Voyager (Mexico) 1991-1995 Mexico Region
-Chrysler Town and Country 1990
-Chrysler Town and Country 1992-1995 FWD
-Chrysler Voyager (Mexico) 1994-1995 Mexico Region
-Chrysler Voyager 1991-1993 Mexico Region
-Dodge Caravan 1984-1990
-Dodge Caravan 1991-1993 FWD
-Dodge Caravan 1994 Non-ABS; FWD
-Dodge Caravan 1995 Non-ABS
-Dodge Dakota 1987-1988 RWD
-Dodge Dakota 1989-2002
-Dodge Grand Caravan 1987-1990
-Dodge Grand Caravan 1991-1993 FWD
-Dodge Grand Caravan 1994-1995 Non-ABS; FWD
-Dodge Mini Ram 1984-1988
-Ford Ranger 2003-2011
-Jeep Cherokee 1990
-Jeep Cherokee 1991-1996 4-Wheel ABS
-Jeep Comanche 1990-1992
-Jeep TJ 1997-2006
-Jeep Wagoneer 1990
-Jeep Wrangler 1997-2000 4-Wheel ABS
-Jeep Wrangler 2001-2006
-Mazda B2300 2010
-Mazda B4000 2010
-Plymouth Grand Voyager 1988-1990
-Plymouth Grand Voyager 1991-1993 FWD
-Plymouth Grand Voyager 1994-1995 Non-ABS; FWD
-Plymouth Voyager 1984-1990
-Plymouth Voyager 1991-1993 FWD
-Plymouth Voyager 1994-1995 Non-ABS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>W37635</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=9423&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Chevrolet Prizm 1998-2002
-Toyota Camry 1983-1986
-Toyota Celica 1986-2002
-Toyota Corolla 1984-2002
-Toyota Tercel 1984-1987
-Toyota Yaris 2018-2019</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Chevrolet Prizm 1998-2002 4-Wheel ABS
-Toyota Camry 1983-1986
-Toyota Celica 1986-2002
-Toyota Celica 1988-1989 FWD
-Toyota Corolla 1984-1985 Hatchback
-Toyota Corolla 1984-1985 Sedan
-Toyota Corolla 1988-1992 Wagon; FWD
-Toyota Corolla 1998-2002 4-Wheel ABS
-Toyota Tercel 1984-1987 Wagon; FWD
-Toyota Yaris 2018-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>W19235</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=25698&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>American Motors American 1959
-American Motors Classic 1961
-American Motors Rambler 1959-1960
-American Motors Rebel 1960
-Packard Clipper 1957
-Studebaker 3E1 1958
-Studebaker 3E11 1958
-Studebaker 3E5 1958
-Studebaker 3E6 1958
-Studebaker 4E1 1959
-Studebaker 4E11 1959
-Studebaker 4E3 1959
-Studebaker 6E10 1961
-Studebaker 6E5 1960-1961
-Studebaker 7E10 1962
-Studebaker 7E5 1962
-Studebaker 8E10 1963-1964
-Studebaker 8E5 1963-1964</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>American Motors American 1959
-American Motors Classic 1961
-American Motors Rambler 1959-1960
-American Motors Rebel 1960
-Packard Clipper 1957
-Studebaker 3E1 1958
-Studebaker 3E11 1958
-Studebaker 3E5 1958
-Studebaker 3E6 1958
-Studebaker 4E1 1959
-Studebaker 4E11 1959
-Studebaker 4E3 1959
-Studebaker 6E10 1961
-Studebaker 6E5 1960-1961
-Studebaker 7E10 1962
-Studebaker 7E5 1962
-Studebaker 8E10 1963-1964
-Studebaker 8E5 1963-1964</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>W37872</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=15216&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Nissan D21 1988-1994
-Nissan Frontier 1998-2015
-Nissan Pickup (Mexico) 1990-1994
-Nissan Pickup 1995-1997</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Nissan D21 1988-1992 RWD; L4 2.4L (2389cc)
-Nissan D21 1992 RWD; V6 181 3.0L (2960cc)
-Nissan D21 1993-1994 RWD
-Nissan Frontier 1998-1999 RWD
-Nissan Frontier 2000 RWD; L4 2.4L (2389cc)
-Nissan Frontier 2001-2004 L4 2.4L (2389cc)
-Nissan Frontier 2015 Mexico Region
-Nissan Pickup (Mexico) 1990-1994 RWD; Mexico Region
-Nissan Pickup 1995-1997 RWD</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>W37984</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=15277&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Chrysler Grand Voyager (Mexico) 1994-1995
-Chrysler Town and Country 1994-1995
-Chrysler Voyager (Mexico) 1994-1995
-Dodge Caravan 1994-1995
-Dodge Grand Caravan 1994-1995
-Plymouth Grand Voyager 1994-1995
-Plymouth Voyager 1994-1995</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Chrysler Grand Voyager (Mexico) 1994-1995 Mexico Region
-Chrysler Town and Country 1994-1995 FWD
-Chrysler Voyager (Mexico) 1994-1995 Mexico Region
-Dodge Caravan 1994 4-Wheel ABS; FWD
-Dodge Caravan 1995 4-Wheel ABS
-Dodge Grand Caravan 1994-1995 4-Wheel ABS; FWD
-Plymouth Grand Voyager 1994-1995 4-Wheel ABS; FWD
-Plymouth Voyager 1994-1995 4-Wheel ABS</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>

--- a/03.crawler/02.Dorman/file/5.collate/crawler_1-vehicle.xlsx
+++ b/03.crawler/02.Dorman/file/5.collate/crawler_1-vehicle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,532 +436,375 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Vehicle Url</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Part Number</t>
+          <t>Vehicle W/o Engine</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle Url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle W/o Engine</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Vehicle W/ Engine</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=137413&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W19235</t>
+          <t>Chevrolet Express 2500 2008-2020
+Chevrolet Express 3500 2006-2020
+Chevrolet Express 4500 2009-2019
+Chevrolet Silverado 2500 (Mexico) 2008-2014
+Chevrolet Silverado 2500 HD 2008-2014
+Chevrolet Silverado 3500 (Mexico) 2008-2010
+Chevrolet Silverado 3500 HD 2008-2010
+GMC Savana 2500 2008-2020
+GMC Savana 3500 2006-2020
+GMC Savana 4500 2009-2019
+GMC Sierra 2500 HD 2008-2014
+GMC Sierra 3500 HD 2008-2010
+Hummer H2 2006-2009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=25698&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>American Motors American 1959
-American Motors Classic 1961
-American Motors Rambler 1959-1960
-American Motors Rebel 1960
-Packard Clipper 1957
-Studebaker 3E1 1958
-Studebaker 3E11 1958
-Studebaker 3E5 1958
-Studebaker 3E6 1958
-Studebaker 4E1 1959
-Studebaker 4E11 1959
-Studebaker 4E3 1959
-Studebaker 6E10 1961
-Studebaker 6E5 1960-1961
-Studebaker 7E10 1962
-Studebaker 7E5 1962
-Studebaker 8E10 1963-1964
-Studebaker 8E5 1963-1964</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>American Motors American 1959
-American Motors Classic 1961
-American Motors Rambler 1959-1960
-American Motors Rebel 1960
-Packard Clipper 1957
-Studebaker 3E1 1958
-Studebaker 3E11 1958
-Studebaker 3E5 1958
-Studebaker 3E6 1958
-Studebaker 4E1 1959
-Studebaker 4E11 1959
-Studebaker 4E3 1959
-Studebaker 6E10 1961
-Studebaker 6E5 1960-1961
-Studebaker 7E10 1962
-Studebaker 7E5 1962
-Studebaker 8E10 1963-1964
-Studebaker 8E5 1963-1964</t>
+          <t>Chevrolet Express 2500 2008-2020
+Chevrolet Express 3500 2006-2020
+Chevrolet Express 4500 2009-2019
+Chevrolet Silverado 2500 (Mexico) 2008-2014
+Chevrolet Silverado 2500 HD 2008-2014
+Chevrolet Silverado 3500 (Mexico) 2008-2010
+Chevrolet Silverado 3500 HD 2008-2010
+GMC Savana 2500 2008-2020
+GMC Savana 3500 2006-2020
+GMC Savana 4500 2009-2019
+GMC Sierra 2500 HD 2008-2014
+GMC Sierra 3500 HD 2008-2010
+Hummer H2 2006-2009</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=45360&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W37425</t>
+          <t>Ford F-250 Super Duty 2005-2010
+Ford F-350 (Mexico) 2008-2012
+Ford F-350 Super Duty 2005-2012
+Ford F-450 Super Duty 2011-2012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=9421&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BMW 2002 1969-1976
-BMW 2002ti 1969-1971
-BMW 2002tii 1971-1974</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>BMW 2002 1969-1976
-BMW 2002ti 1969-1971
-BMW 2002tii 1971-1974</t>
+          <t>Ford F-250 Super Duty 2005-2010
+Ford F-350 (Mexico) 2008-2012 Mexico Region
+Ford F-350 Super Duty 2005-2012
+Ford F-450 Super Duty 2011-2012 Crew Cab Pickup</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=49987&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>W37635</t>
+          <t>Chevrolet Blazer 1988-1999
+Chevrolet C15 (Mexico) 1988
+Chevrolet C1500 1988-1999
+Chevrolet C1500 Suburban 1992-1999
+Chevrolet K1500 1988-1999
+Chevrolet K1500 Suburban 1992-1999
+GMC C1500 1988-1999
+GMC C1500 Suburban 1992-1999
+GMC Jimmy 1988-1999
+GMC K1500 1988-1999
+GMC K1500 Suburban 1992-1999</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=9423&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Chevrolet Prizm 1998-2002
-Toyota Camry 1983-1986
-Toyota Celica 1986-2002
-Toyota Corolla 1984-2002
-Toyota Tercel 1984-1987
-Toyota Yaris 2018-2019</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Chevrolet Prizm 1998-2002 4-Wheel ABS
-Toyota Camry 1983-1986
-Toyota Celica 1986-2002
-Toyota Celica 1988-1989 FWD
-Toyota Corolla 1984-1985 Hatchback
-Toyota Corolla 1984-1985 Sedan
-Toyota Corolla 1988-1992 Wagon; FWD
-Toyota Corolla 1998-2002 4-Wheel ABS
-Toyota Tercel 1984-1987 Wagon; FWD
-Toyota Yaris 2018-2019</t>
+          <t>Chevrolet Blazer 1988-1999
+Chevrolet C15 (Mexico) 1988 Mexico Region
+Chevrolet C1500 1988-1999
+Chevrolet C1500 Suburban 1992-1999
+Chevrolet K1500 1988-1999
+Chevrolet K1500 Suburban 1992-1999
+GMC C1500 1988-1999
+GMC C1500 Suburban 1992-1999
+GMC Jimmy 1988-1999
+GMC K1500 1988-1999
+GMC K1500 Suburban 1992-1999</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=49997&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>W37872</t>
+          <t>Jeep Grand Cherokee 1999-2004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=15216&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nissan D21 1988-1994
-Nissan Frontier 1998-2015
-Nissan Pickup (Mexico) 1990-1994
-Nissan Pickup 1995-1997</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Nissan D21 1988-1992 RWD; L4 2.4L (2389cc)
-Nissan D21 1992 RWD; V6 181 3.0L (2960cc)
-Nissan D21 1993-1994 RWD
-Nissan Frontier 1998-1999 RWD
-Nissan Frontier 2000 RWD; L4 2.4L (2389cc)
-Nissan Frontier 2001-2004 L4 2.4L (2389cc)
-Nissan Frontier 2015 Mexico Region
-Nissan Pickup (Mexico) 1990-1994 RWD; Mexico Region
-Nissan Pickup 1995-1997 RWD</t>
+          <t>Jeep Grand Cherokee 1999-2004</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=50277&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W37984</t>
+          <t>Buick Century 1978-1981
+Buick Regal 1978-1987
+Chevrolet El Camino 1978-1987
+Chevrolet LLV 1987-1991
+Chevrolet Malibu 1978-1983
+Chevrolet Monte Carlo 1978-1988
+Chevrolet S10 1982-1992
+Chevrolet S10 Blazer 1983-1991
+GMC Caballero 1978-1987
+GMC S15 1982-1990
+GMC S15 Jimmy 1983-1991
+GMC Sonoma 1991-1992
+GMC Syclone 1991
+Oldsmobile Bravada 1991
+Oldsmobile Cutlass 1978-1987
+Oldsmobile Cutlass Calais 1978-1984
+Oldsmobile Cutlass Cruiser 1980-1983
+Oldsmobile Cutlass Supreme 1978-1988
+Pontiac Bonneville 1982-1986
+Pontiac Grand Am 1978-1980
+Pontiac Grand LeMans 1978-1981
+Pontiac Grand Prix 1978-1987
+Pontiac LeMans 1978-1981</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=15277&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Chrysler Grand Voyager (Mexico) 1994-1995
-Chrysler Town and Country 1994-1995
-Chrysler Voyager (Mexico) 1994-1995
-Dodge Caravan 1994-1995
-Dodge Grand Caravan 1994-1995
-Plymouth Grand Voyager 1994-1995
-Plymouth Voyager 1994-1995</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Chrysler Grand Voyager (Mexico) 1994-1995 Mexico Region
-Chrysler Town and Country 1994-1995 FWD
-Chrysler Voyager (Mexico) 1994-1995 Mexico Region
-Dodge Caravan 1994 4-Wheel ABS; FWD
-Dodge Caravan 1995 4-Wheel ABS
-Dodge Grand Caravan 1994-1995 4-Wheel ABS; FWD
-Plymouth Grand Voyager 1994-1995 4-Wheel ABS; FWD
-Plymouth Voyager 1994-1995 4-Wheel ABS</t>
+          <t>Buick Century 1978-1981
+Buick Regal 1978-1987
+Chevrolet El Camino 1978-1987
+Chevrolet LLV 1987-1991
+Chevrolet Malibu 1978-1983
+Chevrolet Monte Carlo 1978-1988
+Chevrolet S10 1982-1992
+Chevrolet S10 Blazer 1983-1991
+GMC Caballero 1978-1987
+GMC S15 1982-1990
+GMC S15 Jimmy 1983-1991
+GMC Sonoma 1991-1992
+GMC Syclone 1991
+Oldsmobile Bravada 1991
+Oldsmobile Cutlass 1978-1986
+Oldsmobile Cutlass 1987 Rear Drum Brakes
+Oldsmobile Cutlass Calais 1978-1984
+Oldsmobile Cutlass Cruiser 1980-1983
+Oldsmobile Cutlass Supreme 1978-1987
+Oldsmobile Cutlass Supreme 1988 Rear Drum Brakes
+Pontiac Bonneville 1982-1986
+Pontiac Grand Am 1978-1980
+Pontiac Grand LeMans 1978-1981
+Pontiac Grand Prix 1978-1987
+Pontiac LeMans 1978-1981</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=81090&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>W610150</t>
+          <t>Subaru Forester 1998-2008
+Subaru Impreza 1993-2007
+Subaru Legacy 1991-1999</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=47833&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Nissan Tiida (Mexico) 2008-2018
-Nissan Versa 2008-2011</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Nissan Tiida (Mexico) 2008-2018 4-Wheel ABS; Mexico Region
-Nissan Tiida (Mexico) 2010-2016 Mexico Region
-Nissan Tiida (Mexico) 2013 Hatchback; Mexico Region
-Nissan Tiida (Mexico) 2013-2014 Sedan; Mexico Region
-Nissan Versa 2008 4-Wheel ABS
-Nissan Versa 2009-2011 4-Wheel ABS; L4 98 1.6L (1598cc)</t>
+          <t>Subaru Forester 1998-2002 S Submodel
+Subaru Forester 2003-2007 XS Submodel
+Subaru Forester 2004-2005 XT Submodel
+Subaru Forester 2005 XS L.L. Bean Edition Submodel
+Subaru Forester 2005 XT Premium Submodel
+Subaru Forester 2006-2007 X L.L. Bean Edition Submodel
+Subaru Forester 2006-2007 XT Limited Submodel
+Subaru Forester 2008 4-Wheel ABS; 2.5 XS Premium Submodel
+Subaru Forester 2008 4-Wheel ABS; 2.5 XS Submodel
+Subaru Forester 2008 4-Wheel ABS; 2.5 XT Submodel
+Subaru Forester 2008 4-Wheel ABS; Sports 2.5 XT Submodel
+Subaru Forester 2008 4-Wheel ABS; XT Limited Submodel
+Subaru Forester 2008 4-Wheel ABS; XT Submodel
+Subaru Impreza 1993-1994 LS Submodel
+Subaru Impreza 1993-2000 L Submodel
+Subaru Impreza 1995-1996 LX Submodel
+Subaru Impreza 1998-2005 RS Submodel
+Subaru Impreza 2002-2007 WRX Submodel
+Subaru Impreza 2004 Outback Submodel
+Subaru Impreza 2004-2007 WRX STI Submodel
+Subaru Impreza 2005-2007 Outback Sport Submodel
+Subaru Impreza 2006-2007 2.5i Submodel
+Subaru Impreza 2006-2007 WRX Limited Submodel
+Subaru Impreza 2006-2007 WRX TR Submodel
+Subaru Impreza 2007 WRX STI Limited Submodel
+Subaru Legacy 1991-1994 4-Wheel ABS; AWD
+Subaru Legacy 1995-1996 LS Submodel
+Subaru Legacy 1995-1997 4-Wheel ABS; L Submodel
+Subaru Legacy 1998-1999 4-Wheel ABS</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=89143&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>W610165</t>
+          <t>Ford Ranger 1995-2009</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=50659&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Volkswagen Clasico (Mexico) 2011-2014
-Volkswagen Golf 1996-1999
-Volkswagen Jetta 1996-1999
-Volkswagen Pointer 1994-1997
-Volkswagen Pointer Truck 1994-1997
-Volkswagen Polo (Mexico) 2003-2007
-Volkswagen Polo Classic 1997-2002</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Volkswagen Clasico (Mexico) 2011-2014 Rear Drum Brakes; Mexico Region
-Volkswagen Golf 1996-1999 L4 121 2.0L (1984cc)
-Volkswagen Jetta 1996-1999 L4 121 2.0L (1984cc)
-Volkswagen Pointer 1994-1997 Mexico Region
-Volkswagen Pointer Truck 1994-1997 Mexico Region
-Volkswagen Polo (Mexico) 2003-2007 Mexico Region
-Volkswagen Polo Classic 1997-2002</t>
+          <t>Ford Ranger 1995-2009</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=96524&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>W610166</t>
+          <t>Toyota Avalon 2005-2007
+Toyota Camry 2004-2006
+Toyota Solara 2004-2008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=50424&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Chrysler Grand Voyager (Mexico) 1991-1995
-Chrysler Town and Country 1990-1995
-Chrysler Voyager (Mexico) 1994-1995
-Chrysler Voyager 1991-1993
-Dodge Caravan 1984-1995
-Dodge Dakota 1987-2002
-Dodge Grand Caravan 1987-1995
-Dodge Mini Ram 1984-1988
-Ford Ranger 2003-2011
-Jeep Cherokee 1990-1996
-Jeep Comanche 1990-1992
-Jeep TJ 1997-2006
-Jeep Wagoneer 1990
-Jeep Wrangler 1997-2006
-Mazda B2300 2010
-Mazda B4000 2010
-Plymouth Grand Voyager 1988-1995
-Plymouth Voyager 1984-1995</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Chrysler Grand Voyager (Mexico) 1991-1995 Mexico Region
-Chrysler Town and Country 1990
-Chrysler Town and Country 1992-1995 FWD
-Chrysler Voyager (Mexico) 1994-1995 Mexico Region
-Chrysler Voyager 1991-1993 Mexico Region
-Dodge Caravan 1984-1990
-Dodge Caravan 1991-1993 FWD
-Dodge Caravan 1994 Non-ABS; FWD
-Dodge Caravan 1995 Non-ABS
-Dodge Dakota 1987-1988 RWD
-Dodge Dakota 1989-2002
-Dodge Grand Caravan 1987-1990
-Dodge Grand Caravan 1991-1993 FWD
-Dodge Grand Caravan 1994-1995 Non-ABS; FWD
-Dodge Mini Ram 1984-1988
-Ford Ranger 2003-2011
-Jeep Cherokee 1990
-Jeep Cherokee 1991-1996 4-Wheel ABS
-Jeep Comanche 1990-1992
-Jeep TJ 1997-2006
-Jeep Wagoneer 1990
-Jeep Wrangler 1997-2000 4-Wheel ABS
-Jeep Wrangler 2001-2006
-Mazda B2300 2010
-Mazda B4000 2010
-Plymouth Grand Voyager 1988-1990
-Plymouth Grand Voyager 1991-1993 FWD
-Plymouth Grand Voyager 1994-1995 Non-ABS; FWD
-Plymouth Voyager 1984-1990
-Plymouth Voyager 1991-1993 FWD
-Plymouth Voyager 1994-1995 Non-ABS</t>
+          <t>Toyota Avalon 2005-2007
+Toyota Camry 2004-2006
+Toyota Solara 2004-2008</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=96550&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>W72258</t>
+          <t>Cadillac Brougham 1991-1992
+Cadillac Commercial Chassis 1993-1996
+Cadillac Fleetwood 1993-1996
+Chevrolet C1500 1992-1998
+Chevrolet C1500 Suburban 1992-1998
+Chevrolet C2500 1992-1998
+Chevrolet C2500 Suburban 1992-1998
+Chevrolet Express 1500 1996-2002
+Chevrolet Express 2500 1996-2002
+Chevrolet K1500 1992-1998
+Chevrolet K1500 Suburban 1992-1998
+Chevrolet K2500 1992-1998
+Chevrolet K2500 Suburban 1992-1998
+Chevrolet Suburban (Mexico) 1992-1994
+Chevrolet Suburban 1500 (Mexico) 1995-1998
+Chevrolet Tahoe 1995-1998
+GMC C1500 1992-1998
+GMC C1500 Suburban 1992-1998
+GMC C2500 1992-1998
+GMC C2500 Suburban 1992-1998
+GMC G2500 1996-1997
+GMC K1500 1992-1998
+GMC K1500 Suburban 1992-1998
+GMC K2500 1992-1998
+GMC K2500 Suburban 1992-1998
+GMC Savana 1500 1996-2002
+GMC Savana 2500 1996-2002
+GMC Yukon 1992-1998</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=21537&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Edsel Bermuda 1958
-Edsel Citation 1958
-Edsel Corsair 1958-1959
-Edsel Pacer 1958
-Edsel Ranger 1958-1959
-Edsel Roundup 1958
-Edsel Villager 1958-1959
-Ford Anglia 1957-1958
-Ford Club 1957-1958
-Ford Consul 1957-1958
-Ford Country Sedan 1957-1958
-Ford Country Squire 1957-1958
-Ford Custom 1957
-Ford Custom 300 1957-1958
-Ford Del Rio Wagon 1957-1958
-Ford Escort 1957-1958
-Ford Fairlane 1957-1958
-Ford Prefect 1957-1958
-Ford Ranch Wagon 1957-1958
-Ford Skyliner 1957-1958
-Ford Squire 1957-1958
-Ford Sunliner 1957-1958
-Ford Taunus 1957-1958
-Ford Thunderbird 1958
-Ford Victoria 1957-1958
-Ford Zephyr 1957-1958
-Ford Zodiac 1957-1958
-International 1000C 1968
-International 1000D 1969-1970
-International 1010 1971-1973
-International 3KM 1941-1949
-Mercury Colony Park 1957-1960
-Mercury Commuter 1957-1960
-Mercury Country Cruiser 1959
-Mercury Medalist 1957-1958
-Mercury Montclair 1957-1960
-Mercury Monterey 1957-1960
-Mercury Park Lane 1958-1959
-Mercury Turnpike Cruiser 1957
-Mercury Voyager 1957-1959</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Edsel Bermuda 1958
-Edsel Citation 1958
-Edsel Corsair 1958-1959
-Edsel Pacer 1958
-Edsel Ranger 1958-1959
-Edsel Roundup 1958
-Edsel Villager 1958-1959
-Ford Anglia 1957-1958
-Ford Club 1957-1958
-Ford Consul 1957-1958
-Ford Country Sedan 1957-1958
-Ford Country Squire 1957-1958
-Ford Custom 1957
-Ford Custom 300 1957-1958
-Ford Del Rio Wagon 1957-1958
-Ford Escort 1957-1958
-Ford Fairlane 1957-1958
-Ford Prefect 1957-1958
-Ford Ranch Wagon 1957-1958
-Ford Skyliner 1957-1958
-Ford Squire 1957-1958
-Ford Sunliner 1957-1958
-Ford Taunus 1957-1958
-Ford Thunderbird 1958
-Ford Victoria 1957-1958
-Ford Zephyr 1957-1958
-Ford Zodiac 1957-1958
-International 1000C 1968
-International 1000D 1969-1970
-International 1010 1971-1973
-International 3KM 1941-1949
-Mercury Colony Park 1957-1960
-Mercury Commuter 1957-1960
-Mercury Country Cruiser 1959
-Mercury Medalist 1957-1958
-Mercury Montclair 1957-1960
-Mercury Monterey 1957-1960
-Mercury Park Lane 1958-1959
-Mercury Turnpike Cruiser 1957
-Mercury Voyager 1957-1959</t>
+          <t>Cadillac Brougham 1991-1992
+Cadillac Commercial Chassis 1993-1996 Brougham Submodel
+Cadillac Fleetwood 1993-1996 Brougham Submodel
+Chevrolet C1500 1992-1998
+Chevrolet C1500 Suburban 1992-1998
+Chevrolet C2500 1992-1998
+Chevrolet C2500 Suburban 1992-1998
+Chevrolet Express 1500 1996-2002
+Chevrolet Express 2500 1996-2002
+Chevrolet K1500 1992-1998
+Chevrolet K1500 Suburban 1992-1998
+Chevrolet K2500 1992-1998
+Chevrolet K2500 Suburban 1992-1998
+Chevrolet Suburban (Mexico) 1992-1994
+Chevrolet Suburban 1500 (Mexico) 1995-1998
+Chevrolet Tahoe 1995-1998
+GMC C1500 1992-1998
+GMC C1500 Suburban 1992-1998
+GMC C2500 1992-1998
+GMC C2500 Suburban 1992-1998
+GMC G2500 1996-1997
+GMC K1500 1992-1998
+GMC K1500 Suburban 1992-1998
+GMC K2500 1992-1998
+GMC K2500 Suburban 1992-1998
+GMC Savana 1500 1996-2002
+GMC Savana 2500 1996-2002
+GMC Yukon 1992-1998</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=97759&amp;PartType=Brake%20Backing%20Plate</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>W79985</t>
+          <t>Dodge Dakota 1997-2001
+Jeep Cherokee 1990-2001
+Jeep Wrangler 1990-2006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.dormanproducts.com/itemdetailapp.aspx?ProductID=12090&amp;PartType=Wheel%20Cylinder</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>American Motors Gremlin 1970-1976
-American Motors Hornet 1970-1976
-American Motors Javelin 1971-1973
-American Motors Pacer 1975-1976
-Ford Falcon 1960-1964
-Ford Mustang II 1974-1978
-Ford Pinto 1972-1980
-Ford Ranchero 1960-1964
-Mercury Bobcat 1975-1980
-Mercury Comet 1960-1964
-Mercury Cyclone 1964</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>American Motors Gremlin 1970 L6 199 3.3L; Front Drum Brakes
-American Motors Gremlin 1971-1976 L6 258 4.2L; Front Drum Brakes
-American Motors Gremlin 1972-1976 L6 232 3.8L; Front Drum Brakes
-American Motors Hornet 1970 L6 199 3.3L; Front Drum Brakes
-American Motors Hornet 1970-1976 L6 232 3.8L; Front Drum Brakes
-American Motors Hornet 1971-1976 L6 258 4.2L; Front Drum Brakes
-American Motors Javelin 1971-1973 L6 232 3.8L; Front Drum Brakes
-American Motors Javelin 1971-1973 L6 258 4.2L (4228cc); Front Drum Brakes
-American Motors Pacer 1975-1976 Front Disc Brakes
-American Motors Pacer 1975-1976 Front Drum Brakes
-Ford Falcon 1960-1962
-Ford Falcon 1963-1964 L6 144 2.4L
-Ford Falcon 1963-1964 L6 170 2.8L
-Ford Falcon 1964 L6 200 3.3L (3277cc)
-Ford Mustang II 1974-1978
-Ford Pinto 1972-1973 Front Disc Brakes
-Ford Pinto 1974-1980
-Ford Ranchero 1960-1962
-Ford Ranchero 1963-1964 L6 144 2.4L (2360cc)
-Ford Ranchero 1963-1964 L6 170 2.8L (2786cc)
-Ford Ranchero 1964 L6 200 3.3L (3277cc)
-Mercury Bobcat 1975-1980
-Mercury Comet 1960-1962
-Mercury Comet 1963 L6 144 2.4L (2360cc)
-Mercury Comet 1963-1964 L6 170 2.8L (2786cc)
-Mercury Comet 1963-1964 L6 200 3.3L (3277cc)
-Mercury Cyclone 1964 L6 200 3.3L (3277cc)</t>
+          <t>Dodge Dakota 1997-2001
+Jeep Cherokee 1990-2001
+Jeep Wrangler 1990-2006 Rear Drum Brakes</t>
         </is>
       </c>
     </row>
